--- a/src/main/resources/excel/testdata.xlsx
+++ b/src/main/resources/excel/testdata.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B273D288-4E87-4DE0-BB5E-1304BF0CEB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1D36B-52EE-4788-A3BB-B4FD94D5B493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
+    <sheet name="comment_suite" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -131,6 +132,18 @@
   </si>
   <si>
     <t>TestCaseLinkedInAutomtatedLikes</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Thanks for Sharing</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>This is so cool</t>
   </si>
 </sst>
 </file>
@@ -478,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -759,4 +772,267 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967CF3C-0910-4A72-A869-8426B2F1E5DD}">
+  <dimension ref="A1:A49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>